--- a/Code/Results/Cases/Case_2_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_147/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9866429396154831</v>
+        <v>1.025175111852936</v>
       </c>
       <c r="D2">
-        <v>1.007773528918138</v>
+        <v>1.029422921386836</v>
       </c>
       <c r="E2">
-        <v>0.9991731289659278</v>
+        <v>1.048405314612532</v>
       </c>
       <c r="F2">
-        <v>1.001067145711719</v>
+        <v>1.052741932897462</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0404613543451</v>
+        <v>1.029864519276841</v>
       </c>
       <c r="J2">
-        <v>1.009230632200849</v>
+        <v>1.030345603158973</v>
       </c>
       <c r="K2">
-        <v>1.019125618119945</v>
+        <v>1.032236876639802</v>
       </c>
       <c r="L2">
-        <v>1.010643995448017</v>
+        <v>1.051165251228512</v>
       </c>
       <c r="M2">
-        <v>1.012511633493768</v>
+        <v>1.055489825073982</v>
       </c>
       <c r="N2">
-        <v>1.006906510870136</v>
+        <v>1.014121319705415</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9931111868646392</v>
+        <v>1.026438496476971</v>
       </c>
       <c r="D3">
-        <v>1.012678057397014</v>
+        <v>1.030374154861914</v>
       </c>
       <c r="E3">
-        <v>1.005800568580647</v>
+        <v>1.049830620564165</v>
       </c>
       <c r="F3">
-        <v>1.008268811009156</v>
+        <v>1.054284392696868</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042449341955499</v>
+        <v>1.030135829220114</v>
       </c>
       <c r="J3">
-        <v>1.013791425944484</v>
+        <v>1.031246589314984</v>
       </c>
       <c r="K3">
-        <v>1.023151249913207</v>
+        <v>1.03299586709611</v>
       </c>
       <c r="L3">
-        <v>1.016359764178553</v>
+        <v>1.052401009594728</v>
       </c>
       <c r="M3">
-        <v>1.018796972914702</v>
+        <v>1.056843320839045</v>
       </c>
       <c r="N3">
-        <v>1.008434354310842</v>
+        <v>1.014421201693478</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9971734800007312</v>
+        <v>1.027254428334239</v>
       </c>
       <c r="D4">
-        <v>1.015757792456564</v>
+        <v>1.030987874395556</v>
       </c>
       <c r="E4">
-        <v>1.009976844153664</v>
+        <v>1.050752683621198</v>
       </c>
       <c r="F4">
-        <v>1.012804995206334</v>
+        <v>1.055282138236555</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043680321834297</v>
+        <v>1.030308816274788</v>
       </c>
       <c r="J4">
-        <v>1.016649765848109</v>
+        <v>1.031827583154632</v>
       </c>
       <c r="K4">
-        <v>1.025669683280509</v>
+        <v>1.03348458067783</v>
       </c>
       <c r="L4">
-        <v>1.019956330472054</v>
+        <v>1.053199903994133</v>
       </c>
       <c r="M4">
-        <v>1.022751293239568</v>
+        <v>1.057718298842143</v>
       </c>
       <c r="N4">
-        <v>1.009391721764592</v>
+        <v>1.014614507050394</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9988532822630702</v>
+        <v>1.027597076255585</v>
       </c>
       <c r="D5">
-        <v>1.017031072561149</v>
+        <v>1.031245455250083</v>
       </c>
       <c r="E5">
-        <v>1.011707163671978</v>
+        <v>1.051140275114702</v>
       </c>
       <c r="F5">
-        <v>1.014683982425052</v>
+        <v>1.055701517473032</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044185054392655</v>
+        <v>1.030380925900057</v>
       </c>
       <c r="J5">
-        <v>1.017830222556699</v>
+        <v>1.032071355872408</v>
       </c>
       <c r="K5">
-        <v>1.026708644392</v>
+        <v>1.033689462432309</v>
       </c>
       <c r="L5">
-        <v>1.021445208071914</v>
+        <v>1.053535590690269</v>
       </c>
       <c r="M5">
-        <v>1.024388117665219</v>
+        <v>1.058085947398079</v>
       </c>
       <c r="N5">
-        <v>1.009787055766507</v>
+        <v>1.014695596745568</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9991337283404685</v>
+        <v>1.027654586784403</v>
       </c>
       <c r="D6">
-        <v>1.017243632846055</v>
+        <v>1.031288679242357</v>
       </c>
       <c r="E6">
-        <v>1.011996243464614</v>
+        <v>1.051205351016485</v>
       </c>
       <c r="F6">
-        <v>1.014997873680108</v>
+        <v>1.055771928980083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044269065741092</v>
+        <v>1.030392997433266</v>
       </c>
       <c r="J6">
-        <v>1.018027212253909</v>
+        <v>1.032112258487541</v>
       </c>
       <c r="K6">
-        <v>1.026881955036151</v>
+        <v>1.033723829413874</v>
       </c>
       <c r="L6">
-        <v>1.021693876863</v>
+        <v>1.053591944221076</v>
       </c>
       <c r="M6">
-        <v>1.024661487170141</v>
+        <v>1.058147666086562</v>
       </c>
       <c r="N6">
-        <v>1.009853024539224</v>
+        <v>1.014709201774187</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9971960336894</v>
+        <v>1.027259008260526</v>
       </c>
       <c r="D7">
-        <v>1.015774889041198</v>
+        <v>1.03099131787806</v>
       </c>
       <c r="E7">
-        <v>1.010000062679306</v>
+        <v>1.050757862803281</v>
       </c>
       <c r="F7">
-        <v>1.012830210410404</v>
+        <v>1.055287742282052</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043687115661769</v>
+        <v>1.030309782219309</v>
       </c>
       <c r="J7">
-        <v>1.016665621128763</v>
+        <v>1.031830842328882</v>
       </c>
       <c r="K7">
-        <v>1.025683642543848</v>
+        <v>1.033487320568556</v>
       </c>
       <c r="L7">
-        <v>1.019976314148747</v>
+        <v>1.053204390112383</v>
       </c>
       <c r="M7">
-        <v>1.022773263261088</v>
+        <v>1.057723212128993</v>
       </c>
       <c r="N7">
-        <v>1.009397031877356</v>
+        <v>1.014615591264868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.988855332807646</v>
+        <v>1.025602404678034</v>
       </c>
       <c r="D8">
-        <v>1.009451104029773</v>
+        <v>1.029744767602509</v>
       </c>
       <c r="E8">
-        <v>1.001437031669383</v>
+        <v>1.048887049122742</v>
       </c>
       <c r="F8">
-        <v>1.003527619325383</v>
+        <v>1.053263286045988</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041144976695469</v>
+        <v>1.029956742080542</v>
       </c>
       <c r="J8">
-        <v>1.010791832586208</v>
+        <v>1.030650512364598</v>
       </c>
       <c r="K8">
-        <v>1.020504558072821</v>
+        <v>1.03249388004702</v>
       </c>
       <c r="L8">
-        <v>1.012597572570815</v>
+        <v>1.051583034332475</v>
       </c>
       <c r="M8">
-        <v>1.014660017858217</v>
+        <v>1.055947419071144</v>
       </c>
       <c r="N8">
-        <v>1.007429535097863</v>
+        <v>1.014222819640745</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9731417895254664</v>
+        <v>1.022671099842422</v>
       </c>
       <c r="D9">
-        <v>0.9975388281980248</v>
+        <v>1.02753436055666</v>
       </c>
       <c r="E9">
-        <v>0.9854172034447466</v>
+        <v>1.045588626406615</v>
       </c>
       <c r="F9">
-        <v>0.9861077681211433</v>
+        <v>1.04969315464452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036217164138688</v>
+        <v>1.029314930566821</v>
       </c>
       <c r="J9">
-        <v>0.9996799808111053</v>
+        <v>1.028555142472654</v>
       </c>
       <c r="K9">
-        <v>1.010671962806247</v>
+        <v>1.030724803921773</v>
       </c>
       <c r="L9">
-        <v>0.9987513919398124</v>
+        <v>1.048720238879235</v>
       </c>
       <c r="M9">
-        <v>0.9994303314335974</v>
+        <v>1.052811701216056</v>
       </c>
       <c r="N9">
-        <v>1.003706520198422</v>
+        <v>1.0135250109445</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9618681918000567</v>
+        <v>1.020708451757472</v>
       </c>
       <c r="D10">
-        <v>0.9890018150520998</v>
+        <v>1.026051314718886</v>
       </c>
       <c r="E10">
-        <v>0.9739991755209568</v>
+        <v>1.043388125986603</v>
       </c>
       <c r="F10">
-        <v>0.9736793780110737</v>
+        <v>1.047310831176735</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032592993414232</v>
+        <v>1.028873749822494</v>
       </c>
       <c r="J10">
-        <v>0.991680880381728</v>
+        <v>1.027147643033881</v>
       </c>
       <c r="K10">
-        <v>1.003572525608441</v>
+        <v>1.029532839464444</v>
       </c>
       <c r="L10">
-        <v>0.9888543063836498</v>
+        <v>1.046807533687228</v>
       </c>
       <c r="M10">
-        <v>0.9885406966358805</v>
+        <v>1.050716498346534</v>
       </c>
       <c r="N10">
-        <v>1.001026307616534</v>
+        <v>1.013055918907177</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9567675859347404</v>
+        <v>1.019856539112751</v>
       </c>
       <c r="D11">
-        <v>0.9851436726545473</v>
+        <v>1.025406866519804</v>
       </c>
       <c r="E11">
-        <v>0.9688507951922827</v>
+        <v>1.042434841862193</v>
       </c>
       <c r="F11">
-        <v>0.9680721105981408</v>
+        <v>1.046278646403079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030933560299328</v>
+        <v>1.02867954454766</v>
       </c>
       <c r="J11">
-        <v>0.9880564381860664</v>
+        <v>1.026535628208507</v>
       </c>
       <c r="K11">
-        <v>1.000351303269286</v>
+        <v>1.029013690003131</v>
       </c>
       <c r="L11">
-        <v>0.9843850589245969</v>
+        <v>1.0459782531718</v>
       </c>
       <c r="M11">
-        <v>0.983622348327768</v>
+        <v>1.049808058931733</v>
       </c>
       <c r="N11">
-        <v>0.9998119869478114</v>
+        <v>1.012851861984631</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.95483717145883</v>
+        <v>1.01953978395638</v>
       </c>
       <c r="D12">
-        <v>0.9836843388980858</v>
+        <v>1.025167144236803</v>
       </c>
       <c r="E12">
-        <v>0.9669049102312122</v>
+        <v>1.042080675115745</v>
       </c>
       <c r="F12">
-        <v>0.9659522525052538</v>
+        <v>1.045895146273349</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030302680967391</v>
+        <v>1.028606930408409</v>
       </c>
       <c r="J12">
-        <v>0.9866840004810153</v>
+        <v>1.026307910627149</v>
       </c>
       <c r="K12">
-        <v>0.9991309420139416</v>
+        <v>1.028820398027003</v>
       </c>
       <c r="L12">
-        <v>0.9826948659183095</v>
+        <v>1.045670055316588</v>
       </c>
       <c r="M12">
-        <v>0.9817621755080037</v>
+        <v>1.049470437022487</v>
       </c>
       <c r="N12">
-        <v>0.9993521970263235</v>
+        <v>1.012775924211996</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9552529236469678</v>
+        <v>1.019607743439091</v>
       </c>
       <c r="D13">
-        <v>0.9839985930452883</v>
+        <v>1.025218581165535</v>
       </c>
       <c r="E13">
-        <v>0.9673238769660755</v>
+        <v>1.042156648565204</v>
       </c>
       <c r="F13">
-        <v>0.9664087018338627</v>
+        <v>1.045977413027298</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030438679015852</v>
+        <v>1.0286225280226</v>
       </c>
       <c r="J13">
-        <v>0.9869796116113491</v>
+        <v>1.026356774439716</v>
       </c>
       <c r="K13">
-        <v>0.9993938236558523</v>
+        <v>1.028861880527676</v>
       </c>
       <c r="L13">
-        <v>0.9830588245722782</v>
+        <v>1.045736172416596</v>
       </c>
       <c r="M13">
-        <v>0.9821627431294719</v>
+        <v>1.049542866635699</v>
       </c>
       <c r="N13">
-        <v>0.9994512303595724</v>
+        <v>1.012792219564377</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9566087661538163</v>
+        <v>1.019830362528229</v>
       </c>
       <c r="D14">
-        <v>0.9850235913909511</v>
+        <v>1.025387058067565</v>
       </c>
       <c r="E14">
-        <v>0.9686906498571707</v>
+        <v>1.042405567887732</v>
       </c>
       <c r="F14">
-        <v>0.967897658362645</v>
+        <v>1.046246948259448</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030881713145678</v>
+        <v>1.028673551991445</v>
       </c>
       <c r="J14">
-        <v>0.9879435381406152</v>
+        <v>1.026516812939184</v>
       </c>
       <c r="K14">
-        <v>1.000250925374452</v>
+        <v>1.028997721762488</v>
       </c>
       <c r="L14">
-        <v>0.9842459770173393</v>
+        <v>1.045952780864641</v>
       </c>
       <c r="M14">
-        <v>0.9834692820030796</v>
+        <v>1.049780154852369</v>
       </c>
       <c r="N14">
-        <v>0.9997741629005662</v>
+        <v>1.012845587847161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9574393054787688</v>
+        <v>1.019967483345438</v>
       </c>
       <c r="D15">
-        <v>0.9856515854751253</v>
+        <v>1.025490816369601</v>
       </c>
       <c r="E15">
-        <v>0.9695282270159683</v>
+        <v>1.04255892521938</v>
       </c>
       <c r="F15">
-        <v>0.9688100402940037</v>
+        <v>1.046413004247158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03115273043266</v>
+        <v>1.028704926211734</v>
       </c>
       <c r="J15">
-        <v>0.9885339147522136</v>
+        <v>1.026615366412959</v>
       </c>
       <c r="K15">
-        <v>1.000775796854105</v>
+        <v>1.029081357419716</v>
       </c>
       <c r="L15">
-        <v>0.9849733498490043</v>
+        <v>1.046086218284756</v>
       </c>
       <c r="M15">
-        <v>0.9842697851559349</v>
+        <v>1.049926330975491</v>
       </c>
       <c r="N15">
-        <v>0.9999719534709705</v>
+        <v>1.012878450962936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9622018463910715</v>
+        <v>1.020764946255856</v>
       </c>
       <c r="D16">
-        <v>0.9892543000693433</v>
+        <v>1.026094036336357</v>
       </c>
       <c r="E16">
-        <v>0.9743363165494121</v>
+        <v>1.043451382215278</v>
       </c>
       <c r="F16">
-        <v>0.974046497742829</v>
+        <v>1.047379320145874</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032701146864196</v>
+        <v>1.028886571670991</v>
       </c>
       <c r="J16">
-        <v>0.9919178697101331</v>
+        <v>1.027188206229662</v>
       </c>
       <c r="K16">
-        <v>1.003783063017002</v>
+        <v>1.029567229810641</v>
       </c>
       <c r="L16">
-        <v>0.9891468370337075</v>
+        <v>1.046862547329229</v>
       </c>
       <c r="M16">
-        <v>0.9888626040181262</v>
+        <v>1.050776762595983</v>
       </c>
       <c r="N16">
-        <v>1.001105710756679</v>
+        <v>1.013069441652008</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9651286671245433</v>
+        <v>1.021264614844283</v>
       </c>
       <c r="D17">
-        <v>0.9914696110471206</v>
+        <v>1.026471807841127</v>
       </c>
       <c r="E17">
-        <v>0.9772957000918068</v>
+        <v>1.044011071051686</v>
       </c>
       <c r="F17">
-        <v>0.9772686522995108</v>
+        <v>1.047985292753961</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033647658418588</v>
+        <v>1.028999663212896</v>
       </c>
       <c r="J17">
-        <v>0.9939961499688906</v>
+        <v>1.027546846007983</v>
       </c>
       <c r="K17">
-        <v>1.005628880528746</v>
+        <v>1.029871193898925</v>
       </c>
       <c r="L17">
-        <v>0.9917138839115348</v>
+        <v>1.047349228321615</v>
       </c>
       <c r="M17">
-        <v>0.9916873395672351</v>
+        <v>1.051309889394816</v>
       </c>
       <c r="N17">
-        <v>1.001802050042343</v>
+        <v>1.013188993384224</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9668149101565913</v>
+        <v>1.021555863426054</v>
       </c>
       <c r="D18">
-        <v>0.9927463215758107</v>
+        <v>1.026691935832961</v>
       </c>
       <c r="E18">
-        <v>0.9790023569087741</v>
+        <v>1.044337484824372</v>
       </c>
       <c r="F18">
-        <v>0.9791265376248098</v>
+        <v>1.048338686700527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034191114886045</v>
+        <v>1.029065321715722</v>
       </c>
       <c r="J18">
-        <v>0.9951930103287793</v>
+        <v>1.027755787937231</v>
       </c>
       <c r="K18">
-        <v>1.006691448763628</v>
+        <v>1.030048199725512</v>
       </c>
       <c r="L18">
-        <v>0.9931936552742644</v>
+        <v>1.047632998606176</v>
       </c>
       <c r="M18">
-        <v>0.9933155714932786</v>
+        <v>1.051620737622035</v>
       </c>
       <c r="N18">
-        <v>1.002203073336983</v>
+        <v>1.013258635562947</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9673864094138334</v>
+        <v>1.021655137964012</v>
       </c>
       <c r="D19">
-        <v>0.993179083721216</v>
+        <v>1.026766956609732</v>
       </c>
       <c r="E19">
-        <v>0.9795810560353638</v>
+        <v>1.044448776345199</v>
       </c>
       <c r="F19">
-        <v>0.9797564642252419</v>
+        <v>1.048459175005839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034374983092239</v>
+        <v>1.029087657722467</v>
       </c>
       <c r="J19">
-        <v>0.9955985595151058</v>
+        <v>1.027826990020439</v>
       </c>
       <c r="K19">
-        <v>1.007051421119691</v>
+        <v>1.030108504817594</v>
       </c>
       <c r="L19">
-        <v>0.9936953146633398</v>
+        <v>1.04772973973142</v>
       </c>
       <c r="M19">
-        <v>0.9938675465830793</v>
+        <v>1.051726709415733</v>
       </c>
       <c r="N19">
-        <v>1.002338958878569</v>
+        <v>1.013282366460905</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9648168309196281</v>
+        <v>1.021211025825204</v>
       </c>
       <c r="D20">
-        <v>0.9912335400039958</v>
+        <v>1.026431299285316</v>
       </c>
       <c r="E20">
-        <v>0.9769802228885774</v>
+        <v>1.043951026259464</v>
       </c>
       <c r="F20">
-        <v>0.9769251955011162</v>
+        <v>1.04792028384861</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03354700558888</v>
+        <v>1.028987561208791</v>
       </c>
       <c r="J20">
-        <v>0.9937747731844819</v>
+        <v>1.027508392887148</v>
       </c>
       <c r="K20">
-        <v>1.005432308678903</v>
+        <v>1.029838611579623</v>
       </c>
       <c r="L20">
-        <v>0.9914402958588159</v>
+        <v>1.04729702270378</v>
       </c>
       <c r="M20">
-        <v>0.9913862965667335</v>
+        <v>1.051252701940987</v>
       </c>
       <c r="N20">
-        <v>1.001727875550778</v>
+        <v>1.013176175966317</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9562105183895067</v>
+        <v>1.019764815545961</v>
       </c>
       <c r="D21">
-        <v>0.9847224965565085</v>
+        <v>1.025337455382053</v>
       </c>
       <c r="E21">
-        <v>0.9682891200797679</v>
+        <v>1.042332269462764</v>
       </c>
       <c r="F21">
-        <v>0.9674602484504097</v>
+        <v>1.046167579690326</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030751658884822</v>
+        <v>1.028658539899929</v>
       </c>
       <c r="J21">
-        <v>0.9876604252262533</v>
+        <v>1.02646969633104</v>
       </c>
       <c r="K21">
-        <v>0.999999203967096</v>
+        <v>1.028957732536502</v>
       </c>
       <c r="L21">
-        <v>0.9838972432728926</v>
+        <v>1.045888999709677</v>
       </c>
       <c r="M21">
-        <v>0.9830854815287052</v>
+        <v>1.049710284601968</v>
       </c>
       <c r="N21">
-        <v>0.99967931419887</v>
+        <v>1.012829876145963</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9505904133150349</v>
+        <v>1.018853689722261</v>
       </c>
       <c r="D22">
-        <v>0.9804757226542244</v>
+        <v>1.024647711647068</v>
       </c>
       <c r="E22">
-        <v>0.962628899087341</v>
+        <v>1.041314058069556</v>
       </c>
       <c r="F22">
-        <v>0.9612929199739126</v>
+        <v>1.045064998557245</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028909709576429</v>
+        <v>1.028448906963433</v>
       </c>
       <c r="J22">
-        <v>0.9836635672804722</v>
+        <v>1.025814379737669</v>
       </c>
       <c r="K22">
-        <v>0.9964441418001054</v>
+        <v>1.028401244842841</v>
       </c>
       <c r="L22">
-        <v>0.9789789056355477</v>
+        <v>1.045002755533505</v>
       </c>
       <c r="M22">
-        <v>0.9776722494687684</v>
+        <v>1.048739420135453</v>
       </c>
       <c r="N22">
-        <v>0.9983403640824885</v>
+        <v>1.012611321856964</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9535906155771451</v>
+        <v>1.019336870613549</v>
       </c>
       <c r="D23">
-        <v>0.9827422467795406</v>
+        <v>1.025013548519271</v>
       </c>
       <c r="E23">
-        <v>0.9656490963817488</v>
+        <v>1.04185387459364</v>
       </c>
       <c r="F23">
-        <v>0.9645840072676666</v>
+        <v>1.045649555665852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029894510273745</v>
+        <v>1.028560299778746</v>
       </c>
       <c r="J23">
-        <v>0.9857975703360294</v>
+        <v>1.026161989673807</v>
       </c>
       <c r="K23">
-        <v>0.9983425712713704</v>
+        <v>1.028696501098549</v>
       </c>
       <c r="L23">
-        <v>0.9816037886629099</v>
+        <v>1.045472663720596</v>
       </c>
       <c r="M23">
-        <v>0.9805613312292656</v>
+        <v>1.049254198783223</v>
       </c>
       <c r="N23">
-        <v>0.9990552370160757</v>
+        <v>1.0127272599182</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9649578007172942</v>
+        <v>1.021235241012756</v>
       </c>
       <c r="D24">
-        <v>0.9913402579237367</v>
+        <v>1.02644960403683</v>
       </c>
       <c r="E24">
-        <v>0.9771228335114429</v>
+        <v>1.043978158049673</v>
       </c>
       <c r="F24">
-        <v>0.9770804551843085</v>
+        <v>1.047949658758383</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033592512861839</v>
+        <v>1.028993030528586</v>
       </c>
       <c r="J24">
-        <v>0.9938748511593961</v>
+        <v>1.027525768958947</v>
       </c>
       <c r="K24">
-        <v>1.005521174374426</v>
+        <v>1.029853335027092</v>
       </c>
       <c r="L24">
-        <v>0.9915639725525865</v>
+        <v>1.047320612491618</v>
       </c>
       <c r="M24">
-        <v>0.9915223846515117</v>
+        <v>1.051278542846548</v>
       </c>
       <c r="N24">
-        <v>1.00176140764491</v>
+        <v>1.013181967884771</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9773355931730228</v>
+        <v>1.023430380861075</v>
       </c>
       <c r="D25">
-        <v>1.000717141843063</v>
+        <v>1.028107457032986</v>
       </c>
       <c r="E25">
-        <v>0.9896798389904976</v>
+        <v>1.046441596608538</v>
       </c>
       <c r="F25">
-        <v>0.9907449612466149</v>
+        <v>1.050616486294153</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037547867288614</v>
+        <v>1.029483195473406</v>
       </c>
       <c r="J25">
-        <v>1.002650542492751</v>
+        <v>1.029098698378194</v>
       </c>
       <c r="K25">
-        <v>1.013304335299579</v>
+        <v>1.031184359674261</v>
       </c>
       <c r="L25">
-        <v>1.002440503026312</v>
+        <v>1.049461053690061</v>
       </c>
       <c r="M25">
-        <v>1.003488669147578</v>
+        <v>1.053623168200728</v>
       </c>
       <c r="N25">
-        <v>1.004701864226082</v>
+        <v>1.013706091951021</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_147/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025175111852936</v>
+        <v>0.9866429396154842</v>
       </c>
       <c r="D2">
-        <v>1.029422921386836</v>
+        <v>1.007773528918139</v>
       </c>
       <c r="E2">
-        <v>1.048405314612532</v>
+        <v>0.9991731289659296</v>
       </c>
       <c r="F2">
-        <v>1.052741932897462</v>
+        <v>1.001067145711721</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029864519276841</v>
+        <v>1.0404613543451</v>
       </c>
       <c r="J2">
-        <v>1.030345603158973</v>
+        <v>1.00923063220085</v>
       </c>
       <c r="K2">
-        <v>1.032236876639802</v>
+        <v>1.019125618119946</v>
       </c>
       <c r="L2">
-        <v>1.051165251228512</v>
+        <v>1.010643995448019</v>
       </c>
       <c r="M2">
-        <v>1.055489825073982</v>
+        <v>1.01251163349377</v>
       </c>
       <c r="N2">
-        <v>1.014121319705415</v>
+        <v>1.006906510870136</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026438496476971</v>
+        <v>0.9931111868646395</v>
       </c>
       <c r="D3">
-        <v>1.030374154861914</v>
+        <v>1.012678057397014</v>
       </c>
       <c r="E3">
-        <v>1.049830620564165</v>
+        <v>1.005800568580647</v>
       </c>
       <c r="F3">
-        <v>1.054284392696868</v>
+        <v>1.008268811009157</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030135829220114</v>
+        <v>1.042449341955499</v>
       </c>
       <c r="J3">
-        <v>1.031246589314984</v>
+        <v>1.013791425944485</v>
       </c>
       <c r="K3">
-        <v>1.03299586709611</v>
+        <v>1.023151249913208</v>
       </c>
       <c r="L3">
-        <v>1.052401009594728</v>
+        <v>1.016359764178554</v>
       </c>
       <c r="M3">
-        <v>1.056843320839045</v>
+        <v>1.018796972914703</v>
       </c>
       <c r="N3">
-        <v>1.014421201693478</v>
+        <v>1.008434354310843</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027254428334239</v>
+        <v>0.9971734800007309</v>
       </c>
       <c r="D4">
-        <v>1.030987874395556</v>
+        <v>1.015757792456564</v>
       </c>
       <c r="E4">
-        <v>1.050752683621198</v>
+        <v>1.009976844153664</v>
       </c>
       <c r="F4">
-        <v>1.055282138236555</v>
+        <v>1.012804995206335</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030308816274788</v>
+        <v>1.043680321834297</v>
       </c>
       <c r="J4">
-        <v>1.031827583154632</v>
+        <v>1.016649765848109</v>
       </c>
       <c r="K4">
-        <v>1.03348458067783</v>
+        <v>1.025669683280509</v>
       </c>
       <c r="L4">
-        <v>1.053199903994133</v>
+        <v>1.019956330472054</v>
       </c>
       <c r="M4">
-        <v>1.057718298842143</v>
+        <v>1.022751293239568</v>
       </c>
       <c r="N4">
-        <v>1.014614507050394</v>
+        <v>1.009391721764592</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027597076255585</v>
+        <v>0.9988532822630706</v>
       </c>
       <c r="D5">
-        <v>1.031245455250083</v>
+        <v>1.017031072561149</v>
       </c>
       <c r="E5">
-        <v>1.051140275114702</v>
+        <v>1.011707163671979</v>
       </c>
       <c r="F5">
-        <v>1.055701517473032</v>
+        <v>1.014683982425052</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030380925900057</v>
+        <v>1.044185054392655</v>
       </c>
       <c r="J5">
-        <v>1.032071355872408</v>
+        <v>1.0178302225567</v>
       </c>
       <c r="K5">
-        <v>1.033689462432309</v>
+        <v>1.026708644392</v>
       </c>
       <c r="L5">
-        <v>1.053535590690269</v>
+        <v>1.021445208071914</v>
       </c>
       <c r="M5">
-        <v>1.058085947398079</v>
+        <v>1.024388117665219</v>
       </c>
       <c r="N5">
-        <v>1.014695596745568</v>
+        <v>1.009787055766508</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027654586784403</v>
+        <v>0.9991337283404674</v>
       </c>
       <c r="D6">
-        <v>1.031288679242357</v>
+        <v>1.017243632846054</v>
       </c>
       <c r="E6">
-        <v>1.051205351016485</v>
+        <v>1.011996243464613</v>
       </c>
       <c r="F6">
-        <v>1.055771928980083</v>
+        <v>1.014997873680107</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030392997433266</v>
+        <v>1.044269065741091</v>
       </c>
       <c r="J6">
-        <v>1.032112258487541</v>
+        <v>1.018027212253908</v>
       </c>
       <c r="K6">
-        <v>1.033723829413874</v>
+        <v>1.02688195503615</v>
       </c>
       <c r="L6">
-        <v>1.053591944221076</v>
+        <v>1.021693876862998</v>
       </c>
       <c r="M6">
-        <v>1.058147666086562</v>
+        <v>1.024661487170139</v>
       </c>
       <c r="N6">
-        <v>1.014709201774187</v>
+        <v>1.009853024539224</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027259008260526</v>
+        <v>0.9971960336893997</v>
       </c>
       <c r="D7">
-        <v>1.03099131787806</v>
+        <v>1.015774889041197</v>
       </c>
       <c r="E7">
-        <v>1.050757862803281</v>
+        <v>1.010000062679306</v>
       </c>
       <c r="F7">
-        <v>1.055287742282052</v>
+        <v>1.012830210410404</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030309782219309</v>
+        <v>1.043687115661769</v>
       </c>
       <c r="J7">
-        <v>1.031830842328882</v>
+        <v>1.016665621128762</v>
       </c>
       <c r="K7">
-        <v>1.033487320568556</v>
+        <v>1.025683642543847</v>
       </c>
       <c r="L7">
-        <v>1.053204390112383</v>
+        <v>1.019976314148746</v>
       </c>
       <c r="M7">
-        <v>1.057723212128993</v>
+        <v>1.022773263261088</v>
       </c>
       <c r="N7">
-        <v>1.014615591264868</v>
+        <v>1.009397031877356</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025602404678034</v>
+        <v>0.9888553328076459</v>
       </c>
       <c r="D8">
-        <v>1.029744767602509</v>
+        <v>1.009451104029773</v>
       </c>
       <c r="E8">
-        <v>1.048887049122742</v>
+        <v>1.001437031669383</v>
       </c>
       <c r="F8">
-        <v>1.053263286045988</v>
+        <v>1.003527619325383</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029956742080542</v>
+        <v>1.041144976695469</v>
       </c>
       <c r="J8">
-        <v>1.030650512364598</v>
+        <v>1.010791832586208</v>
       </c>
       <c r="K8">
-        <v>1.03249388004702</v>
+        <v>1.020504558072822</v>
       </c>
       <c r="L8">
-        <v>1.051583034332475</v>
+        <v>1.012597572570814</v>
       </c>
       <c r="M8">
-        <v>1.055947419071144</v>
+        <v>1.014660017858216</v>
       </c>
       <c r="N8">
-        <v>1.014222819640745</v>
+        <v>1.007429535097863</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022671099842422</v>
+        <v>0.9731417895254674</v>
       </c>
       <c r="D9">
-        <v>1.02753436055666</v>
+        <v>0.9975388281980258</v>
       </c>
       <c r="E9">
-        <v>1.045588626406615</v>
+        <v>0.9854172034447475</v>
       </c>
       <c r="F9">
-        <v>1.04969315464452</v>
+        <v>0.9861077681211444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029314930566821</v>
+        <v>1.036217164138689</v>
       </c>
       <c r="J9">
-        <v>1.028555142472654</v>
+        <v>0.9996799808111063</v>
       </c>
       <c r="K9">
-        <v>1.030724803921773</v>
+        <v>1.010671962806248</v>
       </c>
       <c r="L9">
-        <v>1.048720238879235</v>
+        <v>0.9987513919398133</v>
       </c>
       <c r="M9">
-        <v>1.052811701216056</v>
+        <v>0.9994303314335986</v>
       </c>
       <c r="N9">
-        <v>1.0135250109445</v>
+        <v>1.003706520198422</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020708451757472</v>
+        <v>0.9618681918000563</v>
       </c>
       <c r="D10">
-        <v>1.026051314718886</v>
+        <v>0.9890018150520996</v>
       </c>
       <c r="E10">
-        <v>1.043388125986603</v>
+        <v>0.9739991755209569</v>
       </c>
       <c r="F10">
-        <v>1.047310831176735</v>
+        <v>0.9736793780110734</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028873749822494</v>
+        <v>1.032592993414232</v>
       </c>
       <c r="J10">
-        <v>1.027147643033881</v>
+        <v>0.9916808803817276</v>
       </c>
       <c r="K10">
-        <v>1.029532839464444</v>
+        <v>1.00357252560844</v>
       </c>
       <c r="L10">
-        <v>1.046807533687228</v>
+        <v>0.9888543063836498</v>
       </c>
       <c r="M10">
-        <v>1.050716498346534</v>
+        <v>0.9885406966358803</v>
       </c>
       <c r="N10">
-        <v>1.013055918907177</v>
+        <v>1.001026307616533</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019856539112751</v>
+        <v>0.9567675859347413</v>
       </c>
       <c r="D11">
-        <v>1.025406866519804</v>
+        <v>0.9851436726545481</v>
       </c>
       <c r="E11">
-        <v>1.042434841862193</v>
+        <v>0.9688507951922829</v>
       </c>
       <c r="F11">
-        <v>1.046278646403079</v>
+        <v>0.9680721105981415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02867954454766</v>
+        <v>1.030933560299329</v>
       </c>
       <c r="J11">
-        <v>1.026535628208507</v>
+        <v>0.9880564381860671</v>
       </c>
       <c r="K11">
-        <v>1.029013690003131</v>
+        <v>1.000351303269287</v>
       </c>
       <c r="L11">
-        <v>1.0459782531718</v>
+        <v>0.9843850589245973</v>
       </c>
       <c r="M11">
-        <v>1.049808058931733</v>
+        <v>0.9836223483277685</v>
       </c>
       <c r="N11">
-        <v>1.012851861984631</v>
+        <v>0.9998119869478116</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01953978395638</v>
+        <v>0.9548371714588312</v>
       </c>
       <c r="D12">
-        <v>1.025167144236803</v>
+        <v>0.9836843388980875</v>
       </c>
       <c r="E12">
-        <v>1.042080675115745</v>
+        <v>0.9669049102312129</v>
       </c>
       <c r="F12">
-        <v>1.045895146273349</v>
+        <v>0.9659522525052548</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028606930408409</v>
+        <v>1.030302680967391</v>
       </c>
       <c r="J12">
-        <v>1.026307910627149</v>
+        <v>0.9866840004810168</v>
       </c>
       <c r="K12">
-        <v>1.028820398027003</v>
+        <v>0.9991309420139433</v>
       </c>
       <c r="L12">
-        <v>1.045670055316588</v>
+        <v>0.9826948659183103</v>
       </c>
       <c r="M12">
-        <v>1.049470437022487</v>
+        <v>0.9817621755080049</v>
       </c>
       <c r="N12">
-        <v>1.012775924211996</v>
+        <v>0.9993521970263239</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019607743439091</v>
+        <v>0.9552529236469678</v>
       </c>
       <c r="D13">
-        <v>1.025218581165535</v>
+        <v>0.9839985930452887</v>
       </c>
       <c r="E13">
-        <v>1.042156648565204</v>
+        <v>0.9673238769660749</v>
       </c>
       <c r="F13">
-        <v>1.045977413027298</v>
+        <v>0.9664087018338618</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0286225280226</v>
+        <v>1.030438679015852</v>
       </c>
       <c r="J13">
-        <v>1.026356774439716</v>
+        <v>0.9869796116113493</v>
       </c>
       <c r="K13">
-        <v>1.028861880527676</v>
+        <v>0.9993938236558527</v>
       </c>
       <c r="L13">
-        <v>1.045736172416596</v>
+        <v>0.9830588245722774</v>
       </c>
       <c r="M13">
-        <v>1.049542866635699</v>
+        <v>0.9821627431294713</v>
       </c>
       <c r="N13">
-        <v>1.012792219564377</v>
+        <v>0.9994512303595725</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019830362528229</v>
+        <v>0.9566087661538148</v>
       </c>
       <c r="D14">
-        <v>1.025387058067565</v>
+        <v>0.9850235913909495</v>
       </c>
       <c r="E14">
-        <v>1.042405567887732</v>
+        <v>0.9686906498571691</v>
       </c>
       <c r="F14">
-        <v>1.046246948259448</v>
+        <v>0.9678976583626429</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028673551991445</v>
+        <v>1.030881713145677</v>
       </c>
       <c r="J14">
-        <v>1.026516812939184</v>
+        <v>0.9879435381406138</v>
       </c>
       <c r="K14">
-        <v>1.028997721762488</v>
+        <v>1.000250925374451</v>
       </c>
       <c r="L14">
-        <v>1.045952780864641</v>
+        <v>0.9842459770173378</v>
       </c>
       <c r="M14">
-        <v>1.049780154852369</v>
+        <v>0.983469282003078</v>
       </c>
       <c r="N14">
-        <v>1.012845587847161</v>
+        <v>0.9997741629005655</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019967483345438</v>
+        <v>0.9574393054787692</v>
       </c>
       <c r="D15">
-        <v>1.025490816369601</v>
+        <v>0.9856515854751257</v>
       </c>
       <c r="E15">
-        <v>1.04255892521938</v>
+        <v>0.9695282270159689</v>
       </c>
       <c r="F15">
-        <v>1.046413004247158</v>
+        <v>0.968810040294004</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028704926211734</v>
+        <v>1.03115273043266</v>
       </c>
       <c r="J15">
-        <v>1.026615366412959</v>
+        <v>0.9885339147522142</v>
       </c>
       <c r="K15">
-        <v>1.029081357419716</v>
+        <v>1.000775796854106</v>
       </c>
       <c r="L15">
-        <v>1.046086218284756</v>
+        <v>0.9849733498490049</v>
       </c>
       <c r="M15">
-        <v>1.049926330975491</v>
+        <v>0.9842697851559353</v>
       </c>
       <c r="N15">
-        <v>1.012878450962936</v>
+        <v>0.9999719534709707</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020764946255856</v>
+        <v>0.9622018463910706</v>
       </c>
       <c r="D16">
-        <v>1.026094036336357</v>
+        <v>0.9892543000693427</v>
       </c>
       <c r="E16">
-        <v>1.043451382215278</v>
+        <v>0.9743363165494112</v>
       </c>
       <c r="F16">
-        <v>1.047379320145874</v>
+        <v>0.9740464977428283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028886571670991</v>
+        <v>1.032701146864196</v>
       </c>
       <c r="J16">
-        <v>1.027188206229662</v>
+        <v>0.9919178697101324</v>
       </c>
       <c r="K16">
-        <v>1.029567229810641</v>
+        <v>1.003783063017001</v>
       </c>
       <c r="L16">
-        <v>1.046862547329229</v>
+        <v>0.9891468370337069</v>
       </c>
       <c r="M16">
-        <v>1.050776762595983</v>
+        <v>0.9888626040181254</v>
       </c>
       <c r="N16">
-        <v>1.013069441652008</v>
+        <v>1.001105710756679</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021264614844283</v>
+        <v>0.9651286671245436</v>
       </c>
       <c r="D17">
-        <v>1.026471807841127</v>
+        <v>0.9914696110471211</v>
       </c>
       <c r="E17">
-        <v>1.044011071051686</v>
+        <v>0.9772957000918073</v>
       </c>
       <c r="F17">
-        <v>1.047985292753961</v>
+        <v>0.9772686522995113</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028999663212896</v>
+        <v>1.033647658418588</v>
       </c>
       <c r="J17">
-        <v>1.027546846007983</v>
+        <v>0.993996149968891</v>
       </c>
       <c r="K17">
-        <v>1.029871193898925</v>
+        <v>1.005628880528746</v>
       </c>
       <c r="L17">
-        <v>1.047349228321615</v>
+        <v>0.9917138839115353</v>
       </c>
       <c r="M17">
-        <v>1.051309889394816</v>
+        <v>0.9916873395672354</v>
       </c>
       <c r="N17">
-        <v>1.013188993384224</v>
+        <v>1.001802050042343</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021555863426054</v>
+        <v>0.9668149101565912</v>
       </c>
       <c r="D18">
-        <v>1.026691935832961</v>
+        <v>0.9927463215758106</v>
       </c>
       <c r="E18">
-        <v>1.044337484824372</v>
+        <v>0.9790023569087756</v>
       </c>
       <c r="F18">
-        <v>1.048338686700527</v>
+        <v>0.9791265376248113</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029065321715722</v>
+        <v>1.034191114886045</v>
       </c>
       <c r="J18">
-        <v>1.027755787937231</v>
+        <v>0.9951930103287795</v>
       </c>
       <c r="K18">
-        <v>1.030048199725512</v>
+        <v>1.006691448763628</v>
       </c>
       <c r="L18">
-        <v>1.047632998606176</v>
+        <v>0.9931936552742658</v>
       </c>
       <c r="M18">
-        <v>1.051620737622035</v>
+        <v>0.9933155714932799</v>
       </c>
       <c r="N18">
-        <v>1.013258635562947</v>
+        <v>1.002203073336983</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021655137964012</v>
+        <v>0.967386409413833</v>
       </c>
       <c r="D19">
-        <v>1.026766956609732</v>
+        <v>0.9931790837212159</v>
       </c>
       <c r="E19">
-        <v>1.044448776345199</v>
+        <v>0.9795810560353643</v>
       </c>
       <c r="F19">
-        <v>1.048459175005839</v>
+        <v>0.9797564642252422</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029087657722467</v>
+        <v>1.034374983092239</v>
       </c>
       <c r="J19">
-        <v>1.027826990020439</v>
+        <v>0.9955985595151056</v>
       </c>
       <c r="K19">
-        <v>1.030108504817594</v>
+        <v>1.007051421119691</v>
       </c>
       <c r="L19">
-        <v>1.04772973973142</v>
+        <v>0.9936953146633404</v>
       </c>
       <c r="M19">
-        <v>1.051726709415733</v>
+        <v>0.9938675465830797</v>
       </c>
       <c r="N19">
-        <v>1.013282366460905</v>
+        <v>1.002338958878569</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021211025825204</v>
+        <v>0.9648168309196284</v>
       </c>
       <c r="D20">
-        <v>1.026431299285316</v>
+        <v>0.9912335400039961</v>
       </c>
       <c r="E20">
-        <v>1.043951026259464</v>
+        <v>0.9769802228885786</v>
       </c>
       <c r="F20">
-        <v>1.04792028384861</v>
+        <v>0.9769251955011176</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028987561208791</v>
+        <v>1.03354700558888</v>
       </c>
       <c r="J20">
-        <v>1.027508392887148</v>
+        <v>0.9937747731844825</v>
       </c>
       <c r="K20">
-        <v>1.029838611579623</v>
+        <v>1.005432308678903</v>
       </c>
       <c r="L20">
-        <v>1.04729702270378</v>
+        <v>0.9914402958588167</v>
       </c>
       <c r="M20">
-        <v>1.051252701940987</v>
+        <v>0.9913862965667347</v>
       </c>
       <c r="N20">
-        <v>1.013176175966317</v>
+        <v>1.001727875550778</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019764815545961</v>
+        <v>0.9562105183895064</v>
       </c>
       <c r="D21">
-        <v>1.025337455382053</v>
+        <v>0.9847224965565081</v>
       </c>
       <c r="E21">
-        <v>1.042332269462764</v>
+        <v>0.9682891200797688</v>
       </c>
       <c r="F21">
-        <v>1.046167579690326</v>
+        <v>0.9674602484504107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028658539899929</v>
+        <v>1.030751658884822</v>
       </c>
       <c r="J21">
-        <v>1.02646969633104</v>
+        <v>0.987660425226253</v>
       </c>
       <c r="K21">
-        <v>1.028957732536502</v>
+        <v>0.9999992039670956</v>
       </c>
       <c r="L21">
-        <v>1.045888999709677</v>
+        <v>0.9838972432728935</v>
       </c>
       <c r="M21">
-        <v>1.049710284601968</v>
+        <v>0.983085481528706</v>
       </c>
       <c r="N21">
-        <v>1.012829876145963</v>
+        <v>0.9996793141988701</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018853689722261</v>
+        <v>0.9505904133150356</v>
       </c>
       <c r="D22">
-        <v>1.024647711647068</v>
+        <v>0.9804757226542252</v>
       </c>
       <c r="E22">
-        <v>1.041314058069556</v>
+        <v>0.9626288990873405</v>
       </c>
       <c r="F22">
-        <v>1.045064998557245</v>
+        <v>0.9612929199739123</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028448906963433</v>
+        <v>1.02890970957643</v>
       </c>
       <c r="J22">
-        <v>1.025814379737669</v>
+        <v>0.9836635672804731</v>
       </c>
       <c r="K22">
-        <v>1.028401244842841</v>
+        <v>0.9964441418001062</v>
       </c>
       <c r="L22">
-        <v>1.045002755533505</v>
+        <v>0.9789789056355475</v>
       </c>
       <c r="M22">
-        <v>1.048739420135453</v>
+        <v>0.9776722494687681</v>
       </c>
       <c r="N22">
-        <v>1.012611321856964</v>
+        <v>0.9983403640824888</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019336870613549</v>
+        <v>0.9535906155771435</v>
       </c>
       <c r="D23">
-        <v>1.025013548519271</v>
+        <v>0.9827422467795391</v>
       </c>
       <c r="E23">
-        <v>1.04185387459364</v>
+        <v>0.965649096381748</v>
       </c>
       <c r="F23">
-        <v>1.045649555665852</v>
+        <v>0.9645840072676659</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028560299778746</v>
+        <v>1.029894510273744</v>
       </c>
       <c r="J23">
-        <v>1.026161989673807</v>
+        <v>0.9857975703360281</v>
       </c>
       <c r="K23">
-        <v>1.028696501098549</v>
+        <v>0.9983425712713689</v>
       </c>
       <c r="L23">
-        <v>1.045472663720596</v>
+        <v>0.9816037886629091</v>
       </c>
       <c r="M23">
-        <v>1.049254198783223</v>
+        <v>0.9805613312292647</v>
       </c>
       <c r="N23">
-        <v>1.0127272599182</v>
+        <v>0.9990552370160752</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021235241012756</v>
+        <v>0.9649578007172935</v>
       </c>
       <c r="D24">
-        <v>1.02644960403683</v>
+        <v>0.9913402579237358</v>
       </c>
       <c r="E24">
-        <v>1.043978158049673</v>
+        <v>0.9771228335114426</v>
       </c>
       <c r="F24">
-        <v>1.047949658758383</v>
+        <v>0.9770804551843079</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028993030528586</v>
+        <v>1.033592512861838</v>
       </c>
       <c r="J24">
-        <v>1.027525768958947</v>
+        <v>0.9938748511593954</v>
       </c>
       <c r="K24">
-        <v>1.029853335027092</v>
+        <v>1.005521174374425</v>
       </c>
       <c r="L24">
-        <v>1.047320612491618</v>
+        <v>0.991563972552586</v>
       </c>
       <c r="M24">
-        <v>1.051278542846548</v>
+        <v>0.9915223846515109</v>
       </c>
       <c r="N24">
-        <v>1.013181967884771</v>
+        <v>1.00176140764491</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023430380861075</v>
+        <v>0.9773355931730222</v>
       </c>
       <c r="D25">
-        <v>1.028107457032986</v>
+        <v>1.000717141843062</v>
       </c>
       <c r="E25">
-        <v>1.046441596608538</v>
+        <v>0.9896798389904972</v>
       </c>
       <c r="F25">
-        <v>1.050616486294153</v>
+        <v>0.990744961246614</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029483195473406</v>
+        <v>1.037547867288613</v>
       </c>
       <c r="J25">
-        <v>1.029098698378194</v>
+        <v>1.002650542492751</v>
       </c>
       <c r="K25">
-        <v>1.031184359674261</v>
+        <v>1.013304335299578</v>
       </c>
       <c r="L25">
-        <v>1.049461053690061</v>
+        <v>1.002440503026312</v>
       </c>
       <c r="M25">
-        <v>1.053623168200728</v>
+        <v>1.003488669147577</v>
       </c>
       <c r="N25">
-        <v>1.013706091951021</v>
+        <v>1.004701864226082</v>
       </c>
     </row>
   </sheetData>
